--- a/Dataset Text Web.xlsx
+++ b/Dataset Text Web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F02A9-106C-44FB-AEBA-236DA62E9B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD341D-8852-4208-B8B7-7EB6D378133A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1331">
   <si>
     <t>review</t>
   </si>
@@ -3067,6 +3067,954 @@
   </si>
   <si>
     <t xml:space="preserve"> kotor gitu.. kecewa</t>
+  </si>
+  <si>
+    <t>jelek cairannya 😅</t>
+  </si>
+  <si>
+    <t>enak sih rekomen buat anak muda</t>
+  </si>
+  <si>
+    <t>manis tpi ada bau segarnya</t>
+  </si>
+  <si>
+    <t>cukup memuaskan</t>
+  </si>
+  <si>
+    <t>cukup</t>
+  </si>
+  <si>
+    <t>Wanginya enak banget, tahan lama, cocok buat dipakai sehari-hari.</t>
+  </si>
+  <si>
+    <t>Biasa aja sih, wanginya standar, nggak terlalu istimewa.</t>
+  </si>
+  <si>
+    <t>Parfumnya seger banget, langsung bikin mood naik, recomended seller!</t>
+  </si>
+  <si>
+    <t>Standar aja rasanya kurang sesuai sama selera saya</t>
+  </si>
+  <si>
+    <t>Jujur agak kecewa masih bisa diterima</t>
+  </si>
+  <si>
+    <t>seger</t>
+  </si>
+  <si>
+    <t>recomended seller</t>
+  </si>
+  <si>
+    <t>Kemasan bagus tapi mirip sama parfum lain cocok kalau dipakai santai aja</t>
+  </si>
+  <si>
+    <t>Standar aja rasanya mirip sama parfum lain</t>
+  </si>
+  <si>
+    <t>Parfum ini bikin percaya diri botolnya juga terlihat mewah</t>
+  </si>
+  <si>
+    <t>Wanginya lumayan ya lumayan lah lumayan lah, nggak buruk juga</t>
+  </si>
+  <si>
+    <t>Menurut saya biasa aja bukan favorit saya.</t>
+  </si>
+  <si>
+    <t>Not bad lah</t>
+  </si>
+  <si>
+    <t>wanginya lumayan nggak terlalu istimewa masih bisa diterima</t>
+  </si>
+  <si>
+    <t>harumnya elegan banget mirip sama parfum branded pasangan saya juga suka</t>
+  </si>
+  <si>
+    <t>not bad lah</t>
+  </si>
+  <si>
+    <t>harumnya ada tapi mirip sama parfum lain</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa nggak terlalu awet</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan pas banget buat acara penting</t>
+  </si>
+  <si>
+    <t>wanginya lumayan kurang konsisten wanginya</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi botolnya juga terlihat mewah</t>
+  </si>
+  <si>
+    <t>wanginya enak banget langsung bikin mood naik</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama tidak bikin pusing sama sekali recommended banget buat yang suka parfum segar</t>
+  </si>
+  <si>
+    <t>wanginya lumayan mirip sama parfum lain biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja agak cepat hilang masih oke lah buat harga segini</t>
+  </si>
+  <si>
+    <t>parfum ini bikin percaya diri cocok dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>harumnya elegan banget langsung bikin mood naik pasti beli lagi</t>
+  </si>
+  <si>
+    <t>pengiriman cepat kualitas mantap langsung bikin mood naik pasti beli lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parfum ini bikin percaya diri </t>
+  </si>
+  <si>
+    <t>wanginya enak banget cocok dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama awet seharian cocok buat hadiah juga</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih agak cepat hilang masih bisa diterima</t>
+  </si>
+  <si>
+    <t>bikin percaya diri botolnya juga terlihat mewah</t>
+  </si>
+  <si>
+    <t>harumnya ada tapi ya lumayan lah biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>not bad lah nggak terlalu istimewa masih oke lah buat harga segini</t>
+  </si>
+  <si>
+    <t>standar aja rasanya biasa aja dipakai sehari hari masih oke lah buat harga segini</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi cocok dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>pengiriman cepat kualitas mantap langsung bikin mood naik</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih</t>
+  </si>
+  <si>
+    <t>pengiriman cepat kualitas mantap cocok dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya cocok dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama tidak bikin pusing sama sekali</t>
+  </si>
+  <si>
+    <t>standar aja rasanya mirip sama parfum lain biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>harumnya ada tapi nggak terlalu istimewa</t>
+  </si>
+  <si>
+    <t>harumnya ada tapi kurang sesuai sama selera saya</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan pas banget buat acara penting recommended banget buat yang suka parfum segar</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya langsung bikin mood naik</t>
+  </si>
+  <si>
+    <t>not bad lah kurang konsisten wanginya</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi agak cepat hilang</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa kurang sesuai sama selera saya</t>
+  </si>
+  <si>
+    <t>standar aja rasanya mirip sama parfum lain</t>
+  </si>
+  <si>
+    <t>pengiriman cepat kualitas mantap gak nyesel beli 😊</t>
+  </si>
+  <si>
+    <t>not bad lah tapi agak cepat hilang</t>
+  </si>
+  <si>
+    <t>harumnya elegan banget pasangan saya juga suka 😍</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi</t>
+  </si>
+  <si>
+    <t>harumnya elegan banget pas banget buat acara penting</t>
+  </si>
+  <si>
+    <t>wanginya lumayan kurang konsisten wanginya bukan favorit saya</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi wanginya nggak terlalu awet</t>
+  </si>
+  <si>
+    <t>wanginya enak banget awet seharian 😍</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja nggak terlalu istimewa</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama recommended banget 👍</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih agak cepat hilang 🤔</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya botolnya juga terlihat mewah</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan cocok buat acara penting ✨</t>
+  </si>
+  <si>
+    <t>ya lumayan lah buat dipakai sehari hari 🙂</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama cocok dipakai sehari hari pasti beli lagi</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya pas banget buat acara penting</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi awet seharian recommended banget buat yang suka parfum segar</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya awet seharian pokoknya puas banget</t>
+  </si>
+  <si>
+    <t>parfum ini bikin percaya diri langsung bikin mood naik 👍</t>
+  </si>
+  <si>
+    <t>🤔 puas sama parfumnya cocok buat hadiah juga</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya cocok buat hadiah juga</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi ya lumayan lah biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja cocok kalau dipakai santai aja</t>
+  </si>
+  <si>
+    <t>pengiriman cepat kualitas mantap awet seharian</t>
+  </si>
+  <si>
+    <t>not bad lah biasa aja dipakai sehari hari nggak terlalu kecewa juga</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi kurang konsisten wanginya</t>
+  </si>
+  <si>
+    <t>ga nyesel</t>
+  </si>
+  <si>
+    <t>terbaik lah pokoknya</t>
+  </si>
+  <si>
+    <t>bagus dan rekomen</t>
+  </si>
+  <si>
+    <t>cocok buat gen z</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi</t>
+  </si>
+  <si>
+    <t>standar aja rasanya</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa biasa aja dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan tidak bikin pusing sama sekali</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa nggak terlalu istimewa ya wajar aja sih</t>
+  </si>
+  <si>
+    <t>wanginya lumayan biasa aja dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi worth it banget dengan harga segini</t>
+  </si>
+  <si>
+    <t>wangi soft</t>
+  </si>
+  <si>
+    <t>ga norak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oke sih </t>
+  </si>
+  <si>
+    <t>standart tapi baik</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja kurang konsisten wanginya ya wajar aja sih</t>
+  </si>
+  <si>
+    <t>wanginya enak banget awet seharian jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>harumnya ada tapi bukan favorit saya</t>
+  </si>
+  <si>
+    <t>wanginya lumayan</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan</t>
+  </si>
+  <si>
+    <t>wangi boleh</t>
+  </si>
+  <si>
+    <t>menurut saya agak cepat hilang</t>
+  </si>
+  <si>
+    <t>aromanya elegan banget botolnya juga mewah</t>
+  </si>
+  <si>
+    <t>biasa aja sih</t>
+  </si>
+  <si>
+    <t>puas banget pokoknya wajib coba 😊</t>
+  </si>
+  <si>
+    <t>ya lumayan lah standar aja</t>
+  </si>
+  <si>
+    <t>wanginya soft bikin nyaman banget ✨</t>
+  </si>
+  <si>
+    <t>lumayan aja tapi nggak jelek</t>
+  </si>
+  <si>
+    <t>wanginya fresh banget bikin semangat</t>
+  </si>
+  <si>
+    <t>parfum oke sih standar</t>
+  </si>
+  <si>
+    <t>awet seharian 😊</t>
+  </si>
+  <si>
+    <t>pengen beli lagi 😍</t>
+  </si>
+  <si>
+    <t>wanginya lumayan ya lumayan lah masih bisa diterima</t>
+  </si>
+  <si>
+    <t>not bad lah agak cepat hilang nggak terlalu kecewa juga</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja bukan favorit saya</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya awet seharian</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama awet seharian</t>
+  </si>
+  <si>
+    <t>bagus banget wanginya sesuai ekspektasi tidak bikin pusing sama sekali jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>standar aja rasanya ya lumayan lah nggak terlalu kecewa juga</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih ya lumayan lah bukan favorit saya</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan botolnya juga terlihat mewah</t>
+  </si>
+  <si>
+    <t>standar aja rasanya ya lumayan lah biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>suka banget 🙌</t>
+  </si>
+  <si>
+    <t>suka</t>
+  </si>
+  <si>
+    <t>enak pol</t>
+  </si>
+  <si>
+    <t>aromanya elegan bikin mood naik ✨</t>
+  </si>
+  <si>
+    <t>not bad lah tapi mirip parfum lain</t>
+  </si>
+  <si>
+    <t>puas banget ga nyesel beli</t>
+  </si>
+  <si>
+    <t>standar aja sih</t>
+  </si>
+  <si>
+    <t>wanginya lembut pasangan suka banget</t>
+  </si>
+  <si>
+    <t>lumayan lah buat dipakai sehari hari</t>
+  </si>
+  <si>
+    <t>wanginya awet banget cocok buat malam hari</t>
+  </si>
+  <si>
+    <t>oke sih tapi kurang sesuai selera saya</t>
+  </si>
+  <si>
+    <t>aromanya enak banget ga bikin pusing</t>
+  </si>
+  <si>
+    <t>ya biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>wanginya seger banget cocok buat kerja</t>
+  </si>
+  <si>
+    <t>puas banget pokoknya mantap 👍</t>
+  </si>
+  <si>
+    <t>ya lumayan lah biasa aja</t>
+  </si>
+  <si>
+    <t>wanginya awet seharian bikin pede 😊</t>
+  </si>
+  <si>
+    <t>simple saja</t>
+  </si>
+  <si>
+    <t>aromanya elegan banget cocok buat hadiah</t>
+  </si>
+  <si>
+    <t>biasa aja wanginya standar</t>
+  </si>
+  <si>
+    <t>wanginya segar langsung bikin semangat 🙌</t>
+  </si>
+  <si>
+    <t>lumayan lah tapi bukan favorit saya</t>
+  </si>
+  <si>
+    <t>puas banget wanginya bikin ketagihan</t>
+  </si>
+  <si>
+    <t>parfum oke sih tapi biasa aja</t>
+  </si>
+  <si>
+    <t>recommended banget cocok buat dipakai sehari hari ✨</t>
+  </si>
+  <si>
+    <t>andalan yah</t>
+  </si>
+  <si>
+    <t>milenial masih masuk</t>
+  </si>
+  <si>
+    <t>botolnya kualitas tinggi</t>
+  </si>
+  <si>
+    <t>wanginya lumayan bukan favorit saya</t>
+  </si>
+  <si>
+    <t>standar aja rasanya kurang konsisten wanginya masih bisa diterima</t>
+  </si>
+  <si>
+    <t>parfum ini bikin percaya diri</t>
+  </si>
+  <si>
+    <t>wanginya enak banget jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>wangi manisnya bikin ketagihan botolnya juga terlihat mewah jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>kemasan bagus tapi ya lumayan lah nggak terlalu kecewa juga</t>
+  </si>
+  <si>
+    <t>parfum ini bikin percaya diri pasangan saya juga suka</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama</t>
+  </si>
+  <si>
+    <t>standar aja rasanya kurang konsisten wanginya nggak terlalu kecewa juga</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa mirip sama parfum lain</t>
+  </si>
+  <si>
+    <t>tolonglah jelek kali</t>
+  </si>
+  <si>
+    <t>ganiat jualan sama sekali</t>
+  </si>
+  <si>
+    <t>puas sama parfumnya pas banget buat acara penting cocok buat hadiah juga</t>
+  </si>
+  <si>
+    <t>aromanya segar dan tahan lama awet seharian jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>wanginya enak banget awet seharian</t>
+  </si>
+  <si>
+    <t>jujur agak kecewa agak cepat hilang</t>
+  </si>
+  <si>
+    <t>cepat hilang</t>
+  </si>
+  <si>
+    <t>kecewa banget sih</t>
+  </si>
+  <si>
+    <t>gausa beli lagi gacocok</t>
+  </si>
+  <si>
+    <t>botol pecah saat pengiriman</t>
+  </si>
+  <si>
+    <t>produk cacat</t>
+  </si>
+  <si>
+    <t>puas banget wanginya sesuai ekspektasi 👍</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja wanginya standar</t>
+  </si>
+  <si>
+    <t>aromanya segar banget cocok buat siang hari</t>
+  </si>
+  <si>
+    <t>lumayan lah ya masih oke</t>
+  </si>
+  <si>
+    <t>wangi manisnya enak banget jadi favorit baru saya</t>
+  </si>
+  <si>
+    <t>oke sih tapi bukan favorit saya 🤔</t>
+  </si>
+  <si>
+    <t>wanginya seger bikin percaya diri</t>
+  </si>
+  <si>
+    <t>hati hati saat beli</t>
+  </si>
+  <si>
+    <t>coba dipastikan pengiriman nya benar apa tidak</t>
+  </si>
+  <si>
+    <t>komposisi palsu</t>
+  </si>
+  <si>
+    <t>banyak yang lebih bagus</t>
+  </si>
+  <si>
+    <t>tidak mau beli lagi</t>
+  </si>
+  <si>
+    <t>aq kecewa berat</t>
+  </si>
+  <si>
+    <t>harumnya elegan banget langsung bikin mood naik</t>
+  </si>
+  <si>
+    <t>aromanya fresh banget bikin pede seharian</t>
+  </si>
+  <si>
+    <t>wanginya lembut cocok banget buat dipakai kerja 👍</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih standar aja</t>
+  </si>
+  <si>
+    <t>puas banget wanginya awet seharian 😊</t>
+  </si>
+  <si>
+    <t>menurut saya wangi agak cepat hilang</t>
+  </si>
+  <si>
+    <t>aromanya elegan banget mirip parfum mahal</t>
+  </si>
+  <si>
+    <t>kemasan oke tapi wanginya biasa aja</t>
+  </si>
+  <si>
+    <t>recommended banget wanginya seger banget</t>
+  </si>
+  <si>
+    <t>not bad lah tapi kurang awet 🤔</t>
+  </si>
+  <si>
+    <t>wanginya manis cocok banget buat cewek</t>
+  </si>
+  <si>
+    <t>biasa aja nothing special</t>
+  </si>
+  <si>
+    <t>wanginya seger bikin mood bagus setiap hari ✨</t>
+  </si>
+  <si>
+    <t>parfumnya oke sih tapi nggak terlalu istimewa</t>
+  </si>
+  <si>
+    <t>puas banget pokoknya wajib coba</t>
+  </si>
+  <si>
+    <t>ya wajar aja sih untuk harga segini</t>
+  </si>
+  <si>
+    <t>wanginya bikin jatuh cinta langsung pengen beli lagi 😍</t>
+  </si>
+  <si>
+    <t>lumayan lah buat dipakai santai aja</t>
+  </si>
+  <si>
+    <t>aromanya soft nggak bikin pusing</t>
+  </si>
+  <si>
+    <t>standar aja mirip parfum lain</t>
+  </si>
+  <si>
+    <t>worth it banget untuk harga segini</t>
+  </si>
+  <si>
+    <t>biasa aja sih nggak terlalu kecewa</t>
+  </si>
+  <si>
+    <t>wanginya elegan pasangan suka banget 🙌</t>
+  </si>
+  <si>
+    <t>parfum ini oke sih cuma kurang awet</t>
+  </si>
+  <si>
+    <t>puas banget botolnya mewah banget</t>
+  </si>
+  <si>
+    <t>parfumnya oke aja standar</t>
+  </si>
+  <si>
+    <t>aromanya soft bikin nyaman banget 😊</t>
+  </si>
+  <si>
+    <t>menurut saya kurang awet</t>
+  </si>
+  <si>
+    <t>recommended banget nggak nyesel beli</t>
+  </si>
+  <si>
+    <t>wanginya fresh cocok banget buat olahraga</t>
+  </si>
+  <si>
+    <t>ya masih bisa diterima lah</t>
+  </si>
+  <si>
+    <t>menurut saya standar aja</t>
+  </si>
+  <si>
+    <t>wanginya fresh banget worth it banget</t>
+  </si>
+  <si>
+    <t>biasa aja lumayan</t>
+  </si>
+  <si>
+    <t>wajar aja bintang 3</t>
+  </si>
+  <si>
+    <t>puas banget wanginya bikin pede</t>
+  </si>
+  <si>
+    <t>ya lumayan lah</t>
+  </si>
+  <si>
+    <t>wanginya lembut banget jadi favorit saya</t>
+  </si>
+  <si>
+    <t>oke sih tapi bukan favorit saya</t>
+  </si>
+  <si>
+    <t>aromanya elegan cocok buat acara penting</t>
+  </si>
+  <si>
+    <t>menurut saya biasa aja</t>
+  </si>
+  <si>
+    <t>wanginya fresh banget worth it banget 🙌</t>
+  </si>
+  <si>
+    <t>lumayan lah masih oke</t>
+  </si>
+  <si>
+    <t>next beli lagi</t>
+  </si>
+  <si>
+    <t>wangi nya sesuai</t>
+  </si>
+  <si>
+    <t>ga layak poll</t>
+  </si>
+  <si>
+    <t>Tidak bisa berkata kata aku</t>
+  </si>
+  <si>
+    <t>murah banget oy</t>
+  </si>
+  <si>
+    <t>parfumnya emang warna nya hitam gini kah,bukannya seharusnya bening ya??tapi gapapaa lah bagus wangi juga terimakasih yaa</t>
+  </si>
+  <si>
+    <t>harus disemprot trus itu pun ngak lama lagi hilang wangi nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wangi segar yang tahan lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memenuhi standar</t>
+  </si>
+  <si>
+    <t>memberikan sensasi wangi</t>
+  </si>
+  <si>
+    <t>sangat wangi</t>
+  </si>
+  <si>
+    <t>packing aman..seller amanah..barang sampai dengan selamat..thanks ya kaa..semoga sukses selaluu..aamiin allaahumma aamiin..</t>
+  </si>
+  <si>
+    <t>Top markotop</t>
+  </si>
+  <si>
+    <t>produk ini kayak dapat bintang lima</t>
+  </si>
+  <si>
+    <t>soft, manis</t>
+  </si>
+  <si>
+    <t>tutup rusak/lecet</t>
+  </si>
+  <si>
+    <t>barang sampai dengan selamat</t>
+  </si>
+  <si>
+    <t>kurang awet</t>
+  </si>
+  <si>
+    <t>beda dari yang di pesan🥲</t>
+  </si>
+  <si>
+    <t>bau nya tapi kaya parfum bayi sebelum itu aku pernah beli baunya ngak sperti itu baunya itu wnagi tpi kalo ini kaya bau parfum bayi</t>
+  </si>
+  <si>
+    <t>Wangi sih segar cuma gatau tahan lama atau tidak karna emang murah sih (wajar) ☺️</t>
+  </si>
+  <si>
+    <t>wanginya beda kayak offline</t>
+  </si>
+  <si>
+    <t>sesuai harga</t>
+  </si>
+  <si>
+    <t>Buruk bgt, beda jauh dari yang ori 😅</t>
+  </si>
+  <si>
+    <t>Ya lumayan lah, ga terlalu tahan lama tapi ok lol</t>
+  </si>
+  <si>
+    <t>So so lah, at least ga terlalu nyengat 😅</t>
+  </si>
+  <si>
+    <t>Bukan favorit gw, tp ga buruk wkwk</t>
+  </si>
+  <si>
+    <t>Goks, wanginya tahan lama bgt di baju</t>
+  </si>
+  <si>
+    <t>Not bad, standar lah buat harga segini</t>
+  </si>
+  <si>
+    <t>Botol lecet2 kek bekas, minus banget</t>
+  </si>
+  <si>
+    <t>KW bgt, baunya kaya air campur sabun cair 🤢</t>
+  </si>
+  <si>
+    <t>BIASA AJA, GA JELEK TP JUGA GA WOW</t>
+  </si>
+  <si>
+    <t>YA LUMAYAN LAH, GA TERLALU TAHAN LAMA TAPI OK</t>
+  </si>
+  <si>
+    <t>Paket sudah saya terima sesuai dengan yang diharapkan 5 parfum wangi harum, terimakasih next order lagi di lain waktu</t>
+  </si>
+  <si>
+    <t>wahhh ini bener2 wort it bgt BNR dikirim lima guys parfum y wangi jg seger bgt</t>
+  </si>
+  <si>
+    <t>Gak sesuai deskripsi, kecewa berat</t>
+  </si>
+  <si>
+    <t>Netral ya, ga jelek cuman ga sesuai ekspektasi juga wkwk</t>
+  </si>
+  <si>
+    <t>sesuai harapan</t>
+  </si>
+  <si>
+    <t>memiliki wangi yg menyenangkan</t>
+  </si>
+  <si>
+    <t>memiliki tekstur bagus</t>
+  </si>
+  <si>
+    <t>lumayan harum</t>
+  </si>
+  <si>
+    <t>Pesanan sya sudah diterima dengan baik dan Pekingan nya rapi, barang sesuai  pesanan,3 bau wangi nya , toko nya amanah dalam mengirim barang, dengan baik dan benar, pengiriman cepat 👍👍</t>
+  </si>
+  <si>
+    <t>nyaman</t>
+  </si>
+  <si>
+    <t>nak buat yang suka aroma nya</t>
+  </si>
+  <si>
+    <t>pacar saya gamau pakai</t>
+  </si>
+  <si>
+    <t>kualitas tinggi harga murah</t>
+  </si>
+  <si>
+    <t>bolelah direkomendasikan ke yang lain hehe</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>ga terlalu mengecewakan, tapi ga bikin wow juga beneran</t>
+  </si>
+  <si>
+    <t>yaudah lah ya sepadan sama harganya 😡</t>
+  </si>
+  <si>
+    <t>oke aja sih, ga jelek tapi ga bagus banget juga 🤭</t>
+  </si>
+  <si>
+    <t>keluarga sangat tidak suka baunya</t>
+  </si>
+  <si>
+    <t>anak saya pakai dan suka</t>
+  </si>
+  <si>
+    <t>sangat membantu dikala butuh cepat</t>
+  </si>
+  <si>
+    <t>tidak membosankan jadinya enak dipakai</t>
+  </si>
+  <si>
+    <t>kemasan nya menarik dan keluarga suka pol</t>
+  </si>
+  <si>
+    <t>sesuai gambar</t>
+  </si>
+  <si>
+    <t>pengiriman cepat tapi produknya ga sesuai, kecewa parah</t>
+  </si>
+  <si>
+    <t>bau nya ga enak sama sekali, nyesel beli parah</t>
+  </si>
+  <si>
+    <t>tahan lama tapi masih oke</t>
+  </si>
+  <si>
+    <t>aromanya enggak enak saya gak suka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blum di buka mudah2an cocok  </t>
+  </si>
+  <si>
+    <t>botolnya kotor banget, kyk barang bekas asli</t>
+  </si>
+  <si>
+    <t>yaudah lah ya sepadan sama harganya beneran</t>
+  </si>
+  <si>
+    <t>wanginya soft tapi tahan lama, jarang2 parfum begini sumpah</t>
+  </si>
+  <si>
+    <t>bau nya aneh bgt, bukan kaya parfum malah kaya campur alkohol 😅</t>
+  </si>
+  <si>
+    <t>ga lengket di kulit</t>
+  </si>
+  <si>
+    <t>elegan dan sopan</t>
+  </si>
+  <si>
+    <t>baunya enak, okelah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diterima </t>
+  </si>
+  <si>
+    <t>cukup halus</t>
+  </si>
+  <si>
+    <t>ini palsu sih galayak</t>
+  </si>
+  <si>
+    <t>Ini mah bukan parfum, bau kaya cairan pel lol</t>
+  </si>
+  <si>
+    <t>Best buy sih, murah tapi classy vibes banget</t>
+  </si>
+  <si>
+    <t>NYESEL BELI, WANGINYA ANEH BIKIN PUSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesuai pesanan </t>
+  </si>
+  <si>
+    <t>top banget lah</t>
+  </si>
+  <si>
+    <t>ga terlalu istimewah</t>
+  </si>
+  <si>
+    <t>ringan</t>
+  </si>
+  <si>
+    <t>gaya remaja</t>
+  </si>
+  <si>
+    <t>sumpah ini palsu, isinya kaya air doang 🤭</t>
+  </si>
+  <si>
+    <t>asli busuk, lebih mirip pewangi ruangan murahan</t>
+  </si>
+  <si>
+    <t>botolnya kotor banget, kyk barang bekas deh</t>
+  </si>
+  <si>
+    <t>harganya dapet diskon</t>
+  </si>
+  <si>
+    <t>cukup strong baunya</t>
+  </si>
+  <si>
+    <t>Kirain botolan sedang atau besar eh ternyata kecil</t>
+  </si>
+  <si>
+    <t>aroma tidak wangi sekali semprot ilang gak lama</t>
   </si>
 </sst>
 </file>
@@ -3351,11 +4299,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1118"/>
+  <dimension ref="A1:B2118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1749" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -12298,6 +13249,8006 @@
         <v>1014</v>
       </c>
       <c r="B1118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1149" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1150" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1153" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1154" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1156" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1157" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1158" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1161" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1166" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1167" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1168" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1170" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1172" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1175" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1177" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1180" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1182" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1183" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1184" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1185" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1186" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1187" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1188" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1189" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1190" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1191" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1192" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1193" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1196" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1197" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1199" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1201" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1202" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1203" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1204" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1205" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1206" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1207" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1208" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1209" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1210" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1211" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1212" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1213" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1214" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1247" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1248" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1248" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1249" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1250" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1251" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1252" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1253" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1254" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1256" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1257" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1258" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1259" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1260" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1261" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1262" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1263" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1264" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1265" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1266" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1267" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1268" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1269" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1270" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1271" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1272" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1273" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1274" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1275" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1276" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1277" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1278" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1279" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1280" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1281" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1288" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1289" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1290" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1291" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1292" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1307" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1341" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1346" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1362" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1364" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1365" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1367" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1368" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1369" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1370" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1371" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1372" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1373" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1377" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1378" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1380" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1381" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1382" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1383" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1384" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1385" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1386" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1387" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1388" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1449" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1450" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1451" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1452" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1453" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1454" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1455" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1456" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1458" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1462" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1463" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1464" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1465" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1466" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1467" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1468" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1469" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1470" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1471" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1472" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1473" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1474" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1475" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1476" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1477" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1478" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1479" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1480" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1481" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1482" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1483" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1484" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1485" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1486" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1487" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1488" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1489" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1490" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1491" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1492" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1493" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1494" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1495" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1496" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1497" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1498" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1499" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1500" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1501" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1502" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1503" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1504" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1505" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1506" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1507" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1508" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1509" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1510" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1511" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1512" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1513" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1514" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1515" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1516" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1517" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1518" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1519" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1520" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1521" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1522" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1523" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1524" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1525" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1526" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1527" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1528" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1529" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1530" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1531" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1532" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1533" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1534" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1535" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1536" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1537" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1538" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1539" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1540" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1541" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1542" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1543" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1544" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1545" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1546" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1547" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1548" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1549" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1550" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1551" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1552" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1553" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1554" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1555" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1556" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1557" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1558" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1559" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1560" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1561" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1562" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1563" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1564" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1565" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1566" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1567" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1568" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1569" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1570" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1571" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1572" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1573" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1574" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1575" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1576" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1577" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1578" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1579" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1580" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1581" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1582" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1583" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1584" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1585" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1586" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1587" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1588" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1589" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1590" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1591" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1592" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1593" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1594" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1595" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1596" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1597" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1598" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1599" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1600" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1601" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1602" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1603" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1604" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1605" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1606" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1607" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1608" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1609" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1610" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1611" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1612" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1613" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1614" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1615" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1616" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1617" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1618" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1619" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1620" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1621" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1622" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1623" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1624" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1625" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1626" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1627" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1628" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1629" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1630" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1631" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1632" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1633" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1634" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1635" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1636" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1637" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1638" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1639" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1640" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1641" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1642" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1643" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1644" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1645" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1646" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1647" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1648" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1649" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1650" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1651" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1652" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1653" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1654" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1655" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1656" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1657" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1658" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1659" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1660" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1661" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1662" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1663" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1664" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1665" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1666" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1667" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1668" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1669" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1670" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1671" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1672" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1673" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1674" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1675" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1676" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1677" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1678" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1679" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1680" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1681" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1682" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1683" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1684" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1685" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1686" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1687" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1688" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1689" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1690" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1691" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1692" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1693" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1694" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1695" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1696" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1697" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1698" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1699" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1700" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1701" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1702" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1703" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1704" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1705" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1706" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1707" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1708" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1709" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1710" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1711" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1712" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1713" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1714" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1715" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1716" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1717" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1718" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1719" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1720" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1721" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1722" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1723" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1724" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1725" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1726" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1727" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1728" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1729" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1730" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1731" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1732" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1733" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1734" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1735" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1736" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1737" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1738" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1739" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1740" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1741" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1742" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1743" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1744" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1745" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1746" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1747" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1748" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1749" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1750" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1751" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1752" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1753" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1754" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1755" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1756" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1757" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1758" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1759" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1760" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1761" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1762" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1763" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1764" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1765" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1766" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1767" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1768" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1769" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1770" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1771" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1772" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1773" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1774" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1775" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1776" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1777" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1778" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1779" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1780" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1781" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1782" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1783" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1784" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1785" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1786" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1787" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1788" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1789" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1790" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1791" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1792" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1793" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1794" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1795" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1796" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1797" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1798" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1799" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1800" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1801" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1802" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1803" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1804" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1805" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1806" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1807" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1808" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1809" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1810" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1811" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1812" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1813" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1814" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1815" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1816" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1817" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1818" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1819" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1820" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1821" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1822" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1822" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1823" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1823" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1824" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1824" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1825" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1825" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1826" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1826" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1827" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1827" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1828" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1828" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1829" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1829" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1830" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1830" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1831" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1831" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1832" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1832" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1833" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1833" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1834" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1834" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1835" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1835" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1836" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1836" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1837" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1837" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1838" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1838" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1839" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1839" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1840" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1840" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1841" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1841" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1842" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1842" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1843" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1843" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1844" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1844" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1845" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1845" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1846" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1846" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1847" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1847" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1848" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1848" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1849" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1849" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1850" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1850" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1851" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1851" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1852" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1852" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1853" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1853" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1854" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1854" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1855" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1855" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1856" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1856" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1857" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1857" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1858" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1858" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1859" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1859" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1860" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1860" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1861" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1861" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1862" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1862" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1863" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1863" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1864" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1864" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1865" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1865" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1866" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1866" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1867" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1867" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1868" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1868" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1869" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1869" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1870" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1870" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1871" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1871" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1872" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1872" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1873" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1873" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1874" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1874" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1875" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1875" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1876" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1876" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1877" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1877" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1878" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1878" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1879" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1879" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1880" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1880" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1881" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1881" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1882" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1882" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1883" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1883" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1884" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1884" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1885" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1885" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1886" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1886" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1887" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1887" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1888" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1888" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1889" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1889" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1890" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1890" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1891" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1891" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1892" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1892" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1893" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1893" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1894" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1894" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1895" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1895" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1896" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1896" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1897" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1897" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1898" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1898" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1899" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1899" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1900" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1900" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1901" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1901" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1902" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1902" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1903" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1903" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1904" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1904" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1905" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1905" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1906" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1906" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1907" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1907" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1908" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1908" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1909" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1909" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1910" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1910" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1911" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1911" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1912" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1912" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1913" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1913" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1914" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1914" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1915" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1915" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1916" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1916" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1917" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1917" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1918" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1918" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1919" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1919" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1920" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1920" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1921" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1921" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1922" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1922" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1923" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1923" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1924" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1924" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1925" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1925" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1926" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1926" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1927" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1927" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1928" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1928" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1929" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1929" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1930" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1930" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1931" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1931" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1932" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1932" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1933" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1933" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1934" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1934" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1935" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1935" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1936" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1936" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1937" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1937" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1938" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1938" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1939" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1939" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1940" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1940" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1941" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1941" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1942" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1942" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1943" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1944" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1944" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1945" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1945" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1946" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1946" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1947" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1947" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1948" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1948" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1949" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1949" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1950" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1950" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1951" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1951" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1952" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1952" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1953" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1953" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1954" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1954" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1955" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1955" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1956" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1956" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1957" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1957" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1958" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1958" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1959" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1959" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1960" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1960" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1961" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1961" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1962" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1962" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1963" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1963" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1964" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1964" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1965" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1965" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1966" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1966" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1967" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1967" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1968" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1968" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1969" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1969" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1970" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1970" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1971" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1971" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1972" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1972" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1973" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1973" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1974" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1974" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1975" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1975" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1976" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1976" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1977" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1977" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1978" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1978" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1979" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1979" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1980" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1980" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1981" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1981" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1982" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1982" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1983" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1983" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1984" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1984" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1985" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1985" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1986" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1986" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1987" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1987" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1988" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1988" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1989" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1989" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1990" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1990" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1991" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1991" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1992" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1992" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1993" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1993" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1994" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1994" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1995" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1995" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1996" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1996" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1997" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1997" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1998" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1998" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1999" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1999" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2000" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B2000" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2001" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B2001" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2002" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B2002" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2003" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2003" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2004" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B2004" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2005" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B2005" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2006" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B2006" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2007" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B2007" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2008" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2008" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2009" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B2009" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2010" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B2010" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2011" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B2011" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2012" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B2012" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2013" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B2013" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2014" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B2014" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2015" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B2015" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2016" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2016" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2017" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B2017" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2018" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B2018" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2019" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2019" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2020" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B2020" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2021" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B2021" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2022" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B2022" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2023" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B2023" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2024" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B2024" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2025" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B2025" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2026" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2026" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2027" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B2027" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2028" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B2028" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2029" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B2029" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2030" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B2030" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2031" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B2031" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2032" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B2032" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2033" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2033" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2034" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B2034" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2035" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B2035" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2036" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B2036" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2037" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B2037" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2038" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B2038" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2039" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B2039" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2040" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2040" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2041" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2041" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2042" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2042" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2043" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B2043" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2044" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B2044" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2045" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B2045" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2046" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B2046" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2047" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2047" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2048" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B2048" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2049" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B2049" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2050" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B2050" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2051" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2051" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2052" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2052" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2053" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B2053" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2054" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2054" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2055" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B2055" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2056" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B2056" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2057" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B2057" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2058" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B2058" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2059" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B2059" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2060" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B2060" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2061" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B2061" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2062" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B2062" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2063" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2063" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2064" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2064" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2065" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B2065" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2066" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B2066" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2067" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B2067" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2068" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B2068" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2069" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B2069" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2070" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B2070" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2071" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B2071" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2072" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B2072" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2073" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B2073" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2074" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B2074" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2075" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B2075" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2076" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B2076" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2077" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B2077" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2078" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B2078" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2079" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2079" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2080" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B2080" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2081" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B2081" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2082" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B2082" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2083" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2083" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2084" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B2084" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2085" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B2085" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2086" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2086" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2087" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B2087" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2088" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B2088" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2089" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B2089" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2090" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B2090" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2091" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B2091" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2092" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B2092" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2093" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2093" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2094" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B2094" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2095" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B2095" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2096" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B2096" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2097" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B2097" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2098" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B2098" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2099" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B2099" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2100" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B2100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2101" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B2101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2102" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B2102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2103" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2104" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2105" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B2105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2106" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B2106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2107" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B2107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2108" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B2108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2109" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B2109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2110" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B2110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2111" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B2111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2112" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B2112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2113" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2114" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B2114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2115" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B2115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2116" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B2116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2117" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B2117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2118" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B2118" s="1">
         <v>0</v>
       </c>
     </row>
